--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Head and Neck Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Head and Neck Templates.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dkphysicspv1\e$\Gregs_Work\Eclipse\Template Management\External Beam Templates\Structure Templates\Template Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12165" tabRatio="803" activeTab="4"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12165" tabRatio="803"/>
   </bookViews>
   <sheets>
-    <sheet name="H&amp;N Anatomy" sheetId="1" r:id="rId1"/>
-    <sheet name="H&amp;N Lymph Nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="H&amp;N 70 in 35" sheetId="3" r:id="rId3"/>
-    <sheet name="H&amp;N 66 in 33" sheetId="4" r:id="rId4"/>
-    <sheet name="H&amp;N 60 in 30" sheetId="5" r:id="rId5"/>
-    <sheet name="H&amp;N VMAT" sheetId="6" r:id="rId6"/>
+    <sheet name="H&amp;N 70 in 35" sheetId="3" r:id="rId1"/>
+    <sheet name="H&amp;N 66 in 33" sheetId="4" r:id="rId2"/>
+    <sheet name="H&amp;N 60 in 30" sheetId="5" r:id="rId3"/>
+    <sheet name="H&amp;N VMAT" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="302">
-  <si>
-    <t>Lips</t>
-  </si>
-  <si>
-    <t>Tongue</t>
-  </si>
-  <si>
-    <t>Pharynx</t>
-  </si>
-  <si>
-    <t>Oral Cavity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="266">
   <si>
     <t>Submandibular Gland Right</t>
   </si>
@@ -90,9 +81,6 @@
     <t>Larynx</t>
   </si>
   <si>
-    <t>Organs of the head and neck</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>Cochlea L</t>
   </si>
   <si>
-    <t>H&amp;N Anatomy</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -180,84 +165,6 @@
     <t>Template Structures</t>
   </si>
   <si>
-    <t>Right Level 6 Anterior triangle group lymph nodes</t>
-  </si>
-  <si>
-    <t>Node VI R</t>
-  </si>
-  <si>
-    <t>Left Level 6 Anterior triangle group lymph nodes</t>
-  </si>
-  <si>
-    <t>Node VI L</t>
-  </si>
-  <si>
-    <t>Right level 5 Posterior triangle group lymph nodes</t>
-  </si>
-  <si>
-    <t>Node V R</t>
-  </si>
-  <si>
-    <t>Left level 5 Posterior triangle group lymph nodes</t>
-  </si>
-  <si>
-    <t>Node V L</t>
-  </si>
-  <si>
-    <t>Right Level 4 Lower jugular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node IV R</t>
-  </si>
-  <si>
-    <t>Left Level 4 Lower jugular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node IV L</t>
-  </si>
-  <si>
-    <t>Right level 3 Middle jugular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node III R</t>
-  </si>
-  <si>
-    <t>Left level 3 Middle jugular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node III L</t>
-  </si>
-  <si>
-    <t>Right level 2 Upper jugular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node II R</t>
-  </si>
-  <si>
-    <t>Left level 2 Upper jugular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node II L</t>
-  </si>
-  <si>
-    <t>Head and Neck  Lymph Node Structures</t>
-  </si>
-  <si>
-    <t>Level 1b Submandibular lymph nodes</t>
-  </si>
-  <si>
-    <t>Node Ib</t>
-  </si>
-  <si>
-    <t>Level 1a Submental lymph nodes</t>
-  </si>
-  <si>
-    <t>Node Ia</t>
-  </si>
-  <si>
-    <t>H&amp;N Lymph Nodes</t>
-  </si>
-  <si>
     <t>RO Helper Structure</t>
   </si>
   <si>
@@ -889,18 +796,6 @@
   </si>
   <si>
     <t>Columns</t>
-  </si>
-  <si>
-    <t>OAR</t>
-  </si>
-  <si>
-    <t>HN_Anatomy.xml</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>HN_Nodes.xml</t>
   </si>
   <si>
     <t>Site</t>
@@ -983,7 +878,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1174,58 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1305,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1398,20 +1241,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1419,23 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1447,29 +1266,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1477,7 +1287,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="52">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2498,451 +2308,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2971,6 +2336,7 @@
       <sheetName val="ICD-10 Codes"/>
       <sheetName val="Color Chart"/>
       <sheetName val="Original Structure colors"/>
+      <sheetName val="ColourTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2984,13 +2350,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3579111517" displayName="Table3579111517" ref="A2:B13" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table35" displayName="Table35" ref="A2:B13" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -2999,7 +2366,63 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5" displayName="Table5" ref="D2:H63" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+  <sortState ref="D3:H61">
+    <sortCondition ref="E3:E61"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Structure" dataDxfId="43"/>
+    <tableColumn id="2" name="ID" dataDxfId="42"/>
+    <tableColumn id="3" name="Name" dataDxfId="41"/>
+    <tableColumn id="4" name="VolumeCode" dataDxfId="40"/>
+    <tableColumn id="5" name="VolumeCodeTable" dataDxfId="39">
+      <calculatedColumnFormula>IF(EXACT(D3,"DPV"),"ICD-10","")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table3524" displayName="Table3524" ref="A2:B13" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table525" displayName="Table525" ref="D2:H63" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <sortState ref="D3:H61">
+    <sortCondition ref="E3:E61"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Structure" dataDxfId="30"/>
+    <tableColumn id="2" name="ID" dataDxfId="29"/>
+    <tableColumn id="3" name="Name" dataDxfId="28"/>
+    <tableColumn id="4" name="VolumeCode" dataDxfId="27"/>
+    <tableColumn id="5" name="VolumeCodeTable" dataDxfId="26">
+      <calculatedColumnFormula>IF(EXACT(D3,"DPV"),"ICD-10","")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table352428" displayName="Table352428" ref="A2:B13" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table52529" displayName="Table52529" ref="D2:H57" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <sortState ref="D3:H54">
     <sortCondition ref="E3:E54"/>
@@ -3017,7 +2440,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table3512" displayName="Table3512" ref="A2:B13" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
@@ -3027,7 +2450,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table513" displayName="Table513" ref="D2:H46" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <sortState ref="D3:H61">
     <sortCondition ref="E3:E61"/>
@@ -3042,104 +2465,6 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table5810121618" displayName="Table5810121618" ref="D2:F15" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="69"/>
-    <tableColumn id="2" name="ID" dataDxfId="68"/>
-    <tableColumn id="3" name="Name" dataDxfId="67"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3513" displayName="Table3513" ref="A2:B13" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Attribute" dataDxfId="61"/>
-    <tableColumn id="2" name="Value" dataDxfId="60"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table514" displayName="Table514" ref="D2:F14" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="54"/>
-    <tableColumn id="2" name="ID" dataDxfId="53"/>
-    <tableColumn id="3" name="Name" dataDxfId="52"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table35" displayName="Table35" ref="A2:B13" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Attribute"/>
-    <tableColumn id="2" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5" displayName="Table5" ref="D2:H63" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
-  <sortState ref="D3:H61">
-    <sortCondition ref="E3:E61"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Structure" dataDxfId="43"/>
-    <tableColumn id="2" name="ID" dataDxfId="42"/>
-    <tableColumn id="3" name="Name" dataDxfId="41"/>
-    <tableColumn id="4" name="VolumeCode" dataDxfId="40"/>
-    <tableColumn id="5" name="VolumeCodeTable" dataDxfId="39">
-      <calculatedColumnFormula>IF(EXACT(D3,"DPV"),"ICD-10","")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table3524" displayName="Table3524" ref="A2:B13" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Attribute"/>
-    <tableColumn id="2" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table525" displayName="Table525" ref="D2:H63" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <sortState ref="D3:H61">
-    <sortCondition ref="E3:E61"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Structure" dataDxfId="30"/>
-    <tableColumn id="2" name="ID" dataDxfId="29"/>
-    <tableColumn id="3" name="Name" dataDxfId="28"/>
-    <tableColumn id="4" name="VolumeCode" dataDxfId="27"/>
-    <tableColumn id="5" name="VolumeCodeTable" dataDxfId="26">
-      <calculatedColumnFormula>IF(EXACT(D3,"DPV"),"ICD-10","")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table352428" displayName="Table352428" ref="A2:B13" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Attribute"/>
-    <tableColumn id="2" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3186,7 +2511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3221,7 +2546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3433,1907 +2758,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="H1" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="21" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left cochlea</v>
-      </c>
-      <c r="I3" s="20">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>60203</v>
-      </c>
-      <c r="J3" s="20" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K3" s="19" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L3" s="18" t="str">
-        <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M3" s="17" t="str">
-        <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N3" s="16" t="str">
-        <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Cochlea L</v>
-      </c>
-      <c r="O3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P3" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="21" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right cochlea</v>
-      </c>
-      <c r="I4" s="20">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>60202</v>
-      </c>
-      <c r="J4" s="20" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L4" s="18" t="str">
-        <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M4" s="17" t="str">
-        <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N4" s="16" t="str">
-        <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Cochlea R</v>
-      </c>
-      <c r="O4" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S4" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="21" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Larynx</v>
-      </c>
-      <c r="I5" s="20">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55097</v>
-      </c>
-      <c r="J5" s="20" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K5" s="19" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L5" s="18" t="str">
-        <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M5" s="17" t="str">
-        <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N5" s="16" t="str">
-        <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Larynx</v>
-      </c>
-      <c r="O5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P5" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="21" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Mandible</v>
-      </c>
-      <c r="I6" s="20">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>52748</v>
-      </c>
-      <c r="J6" s="20" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K6" s="19" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L6" s="18" t="str">
-        <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M6" s="17" t="str">
-        <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N6" s="16" t="str">
-        <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bone Rendering</v>
-      </c>
-      <c r="O6" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P6" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="14">
-        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>200</v>
-      </c>
-      <c r="S6" s="13">
-        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="21" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left parotid gland</v>
-      </c>
-      <c r="I7" s="20">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59798</v>
-      </c>
-      <c r="J7" s="20" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K7" s="19" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L7" s="18" t="str">
-        <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M7" s="17" t="str">
-        <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N7" s="16" t="str">
-        <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid L</v>
-      </c>
-      <c r="O7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="21" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right parotid gland</v>
-      </c>
-      <c r="I8" s="20">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59797</v>
-      </c>
-      <c r="J8" s="20" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K8" s="19" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L8" s="18" t="str">
-        <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M8" s="17" t="str">
-        <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N8" s="16" t="str">
-        <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid R</v>
-      </c>
-      <c r="O8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P8" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Spinal cord</v>
-      </c>
-      <c r="I9" s="20">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7647</v>
-      </c>
-      <c r="J9" s="20" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K9" s="19" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L9" s="18" t="str">
-        <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M9" s="17" t="str">
-        <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N9" s="16" t="str">
-        <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Spinal Canal</v>
-      </c>
-      <c r="O9" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="14">
-        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="S9" s="13">
-        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="21" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left submandibular gland</v>
-      </c>
-      <c r="I10" s="20">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59803</v>
-      </c>
-      <c r="J10" s="20" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K10" s="19" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L10" s="18" t="str">
-        <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M10" s="17" t="str">
-        <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N10" s="16" t="str">
-        <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSubmandibular L</v>
-      </c>
-      <c r="O10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="21" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right submandibular gland</v>
-      </c>
-      <c r="I11" s="20">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59802</v>
-      </c>
-      <c r="J11" s="20" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K11" s="19" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L11" s="18" t="str">
-        <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M11" s="17" t="str">
-        <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N11" s="16" t="str">
-        <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSubmandibular R</v>
-      </c>
-      <c r="O11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="21" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Cavity of mouth</v>
-      </c>
-      <c r="I12" s="20">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>20292</v>
-      </c>
-      <c r="J12" s="20" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K12" s="19" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L12" s="18" t="str">
-        <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M12" s="17" t="str">
-        <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N12" s="16" t="str">
-        <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Oral cavity</v>
-      </c>
-      <c r="O12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P12" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="21" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Pharynx</v>
-      </c>
-      <c r="I13" s="20">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>46688</v>
-      </c>
-      <c r="J13" s="20" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K13" s="19" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L13" s="18" t="str">
-        <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M13" s="17" t="str">
-        <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N13" s="16" t="str">
-        <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Pharynx</v>
-      </c>
-      <c r="O13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="21" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Tongue</v>
-      </c>
-      <c r="I14" s="20">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>54640</v>
-      </c>
-      <c r="J14" s="20" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K14" s="19" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L14" s="18" t="str">
-        <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M14" s="17" t="str">
-        <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N14" s="16" t="str">
-        <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Tongue</v>
-      </c>
-      <c r="O14" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P14" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R14" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Set of lips</v>
-      </c>
-      <c r="I15" s="9">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>268855</v>
-      </c>
-      <c r="J15" s="9" t="str">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K15" s="8" t="str">
-        <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L15" s="7" t="str">
-        <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="M15" s="6" t="str">
-        <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="N15" s="5" t="str">
-        <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lips</v>
-      </c>
-      <c r="O15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P15" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="H1" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="21" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Submental lymphatic chain</v>
-      </c>
-      <c r="I3" s="20">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>223846</v>
-      </c>
-      <c r="J3" s="20" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K3" s="19" t="str">
-        <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L3" s="42" t="str">
-        <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M3" s="17" t="str">
-        <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N3" s="16" t="str">
-        <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
-      </c>
-      <c r="O3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P3" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="21" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left submandibular lymphatic chain</v>
-      </c>
-      <c r="I4" s="20">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224001</v>
-      </c>
-      <c r="J4" s="20" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L4" s="42" t="str">
-        <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M4" s="17" t="str">
-        <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N4" s="16" t="str">
-        <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="O4" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S4" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="21" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left level II lymphatic chain</v>
-      </c>
-      <c r="I5" s="20">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265660</v>
-      </c>
-      <c r="J5" s="20" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K5" s="19" t="str">
-        <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L5" s="42" t="str">
-        <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M5" s="17" t="str">
-        <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N5" s="16" t="str">
-        <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
-      </c>
-      <c r="O5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P5" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="21" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right level II lymphatic chain</v>
-      </c>
-      <c r="I6" s="20">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265658</v>
-      </c>
-      <c r="J6" s="20" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K6" s="19" t="str">
-        <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L6" s="42" t="str">
-        <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M6" s="17" t="str">
-        <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N6" s="16" t="str">
-        <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="O6" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P6" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S6" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="21" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left level III lymphatic chain</v>
-      </c>
-      <c r="I7" s="20">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241953</v>
-      </c>
-      <c r="J7" s="20" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K7" s="19" t="str">
-        <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L7" s="42" t="str">
-        <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M7" s="17" t="str">
-        <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N7" s="16" t="str">
-        <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
-      </c>
-      <c r="O7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="21" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right level III lymphatic chain</v>
-      </c>
-      <c r="I8" s="20">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241951</v>
-      </c>
-      <c r="J8" s="20" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K8" s="19" t="str">
-        <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L8" s="42" t="str">
-        <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M8" s="17" t="str">
-        <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N8" s="16" t="str">
-        <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="O8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P8" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left inferior lateral deep cervical lymphatic chain</v>
-      </c>
-      <c r="I9" s="20">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241959</v>
-      </c>
-      <c r="J9" s="20" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K9" s="19" t="str">
-        <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L9" s="42" t="str">
-        <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M9" s="17" t="str">
-        <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N9" s="16" t="str">
-        <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
-      </c>
-      <c r="O9" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="21" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right inferior lateral deep cervical lymphatic chain</v>
-      </c>
-      <c r="I10" s="20">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241957</v>
-      </c>
-      <c r="J10" s="20" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K10" s="19" t="str">
-        <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L10" s="42" t="str">
-        <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M10" s="17" t="str">
-        <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N10" s="16" t="str">
-        <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="O10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="21" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left level V lymphatic chain</v>
-      </c>
-      <c r="I11" s="20">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241965</v>
-      </c>
-      <c r="J11" s="20" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K11" s="19" t="str">
-        <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L11" s="42" t="str">
-        <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M11" s="17" t="str">
-        <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N11" s="16" t="str">
-        <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
-      </c>
-      <c r="O11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="21" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right level V lymphatic chain</v>
-      </c>
-      <c r="I12" s="20">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241963</v>
-      </c>
-      <c r="J12" s="20" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K12" s="19" t="str">
-        <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L12" s="42" t="str">
-        <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M12" s="17" t="str">
-        <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N12" s="16" t="str">
-        <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="O12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P12" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="21" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left level VI lymphatic chain</v>
-      </c>
-      <c r="I13" s="20">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241971</v>
-      </c>
-      <c r="J13" s="20" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K13" s="19" t="str">
-        <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L13" s="42" t="str">
-        <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M13" s="17" t="str">
-        <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N13" s="16" t="str">
-        <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
-      </c>
-      <c r="O13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="15" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right level VI lymphatic chain</v>
-      </c>
-      <c r="I14" s="9">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>241969</v>
-      </c>
-      <c r="J14" s="9" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="K14" s="8" t="str">
-        <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L14" s="41" t="str">
-        <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="M14" s="6" t="str">
-        <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="N14" s="5" t="str">
-        <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="O14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="P14" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5364,119 +2791,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="J1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="69"/>
+      <c r="A1" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="53"/>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" s="27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>298</v>
+      <c r="A3" s="50" t="s">
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="57" t="str">
+        <v>179</v>
+      </c>
+      <c r="G3" s="45" t="str">
         <f>IF(EXACT(D3,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5534,23 +2961,23 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>300</v>
+      <c r="A4" s="50" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="57" t="str">
+        <v>176</v>
+      </c>
+      <c r="G4" s="45" t="str">
         <f>IF(EXACT(D4,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5608,23 +3035,23 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>23</v>
+      <c r="A5" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="48" t="s">
-        <v>206</v>
+      <c r="D5" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="57" t="str">
+        <v>174</v>
+      </c>
+      <c r="G5" s="45" t="str">
         <f>IF(EXACT(D5,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5682,23 +3109,23 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>288</v>
+      <c r="A6" s="50" t="s">
+        <v>256</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="12" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="57" t="str">
+        <v>171</v>
+      </c>
+      <c r="G6" s="45" t="str">
         <f>IF(EXACT(D6,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5756,20 +3183,20 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>20</v>
+      <c r="A7" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="12" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="57" t="str">
+        <v>170</v>
+      </c>
+      <c r="G7" s="45" t="str">
         <f>IF(EXACT(D7,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5827,23 +3254,23 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>18</v>
+      <c r="A8" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>201</v>
+        <v>168</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="57" t="str">
+        <v>168</v>
+      </c>
+      <c r="G8" s="45" t="str">
         <f>IF(EXACT(D8,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5901,23 +3328,23 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>299</v>
+      <c r="A9" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="57" t="str">
+        <v>165</v>
+      </c>
+      <c r="G9" s="45" t="str">
         <f>IF(EXACT(D9,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -5975,23 +3402,23 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>285</v>
+      <c r="A10" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="39"/>
+        <v>254</v>
+      </c>
+      <c r="C10" s="38"/>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="57" t="str">
+        <v>22</v>
+      </c>
+      <c r="G10" s="45" t="str">
         <f>IF(EXACT(D10,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6049,23 +3476,23 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>301</v>
+      <c r="A11" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="39"/>
+        <v>258</v>
+      </c>
+      <c r="C11" s="38"/>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="57" t="str">
+        <v>19</v>
+      </c>
+      <c r="G11" s="45" t="str">
         <f>IF(EXACT(D11,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6123,22 +3550,22 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>287</v>
+      <c r="A12" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="57" t="str">
+        <v>162</v>
+      </c>
+      <c r="G12" s="45" t="str">
         <f>IF(EXACT(D12,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6196,22 +3623,22 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>11</v>
+      <c r="A13" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="57" t="str">
+        <v>159</v>
+      </c>
+      <c r="G13" s="45" t="str">
         <f>IF(EXACT(D13,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6269,18 +3696,18 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="D14" s="12" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="57" t="str">
+        <v>156</v>
+      </c>
+      <c r="G14" s="45" t="str">
         <f>IF(EXACT(D14,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6339,15 +3766,15 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G15" s="57" t="str">
+        <v>153</v>
+      </c>
+      <c r="G15" s="45" t="str">
         <f>IF(EXACT(D15,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6406,15 +3833,15 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="57" t="str">
+        <v>150</v>
+      </c>
+      <c r="G16" s="45" t="str">
         <f>IF(EXACT(D16,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6473,15 +3900,15 @@
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="12" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="57" t="str">
+        <v>148</v>
+      </c>
+      <c r="G17" s="45" t="str">
         <f>IF(EXACT(D17,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v>C76.0</v>
       </c>
@@ -6540,15 +3967,15 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="12" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="57" t="str">
+        <v>147</v>
+      </c>
+      <c r="G18" s="45" t="str">
         <f>IF(EXACT(D18,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6607,15 +4034,15 @@
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="57" t="str">
+        <v>146</v>
+      </c>
+      <c r="G19" s="45" t="str">
         <f>IF(EXACT(D19,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6674,15 +4101,15 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="57" t="str">
+        <v>144</v>
+      </c>
+      <c r="G20" s="45" t="str">
         <f>IF(EXACT(D20,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6741,15 +4168,15 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="57" t="str">
+        <v>141</v>
+      </c>
+      <c r="G21" s="45" t="str">
         <f>IF(EXACT(D21,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6808,15 +4235,15 @@
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="57" t="str">
+        <v>17</v>
+      </c>
+      <c r="G22" s="45" t="str">
         <f>IF(EXACT(D22,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6875,15 +4302,15 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="57" t="str">
+        <v>138</v>
+      </c>
+      <c r="G23" s="45" t="str">
         <f>IF(EXACT(D23,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -6941,16 +4368,16 @@
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="58" t="s">
-        <v>169</v>
+      <c r="D24" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="57" t="str">
+        <v>136</v>
+      </c>
+      <c r="G24" s="45" t="str">
         <f>IF(EXACT(D24,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7008,16 +4435,16 @@
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="58" t="s">
-        <v>167</v>
+      <c r="D25" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="57" t="str">
+        <v>134</v>
+      </c>
+      <c r="G25" s="45" t="str">
         <f>IF(EXACT(D25,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7076,15 +4503,15 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="57" t="str">
+        <v>15</v>
+      </c>
+      <c r="G26" s="45" t="str">
         <f>IF(EXACT(D26,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7143,15 +4570,15 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="12" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="57" t="str">
+        <v>132</v>
+      </c>
+      <c r="G27" s="45" t="str">
         <f>IF(EXACT(D27,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7210,15 +4637,15 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="12" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="57" t="str">
+        <v>129</v>
+      </c>
+      <c r="G28" s="45" t="str">
         <f>IF(EXACT(D28,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7277,15 +4704,15 @@
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="12" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="57" t="str">
+        <v>126</v>
+      </c>
+      <c r="G29" s="45" t="str">
         <f>IF(EXACT(D29,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7344,15 +4771,15 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="57" t="str">
+        <v>123</v>
+      </c>
+      <c r="G30" s="45" t="str">
         <f>IF(EXACT(D30,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7411,15 +4838,15 @@
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="57" t="str">
+        <v>121</v>
+      </c>
+      <c r="G31" s="45" t="str">
         <f>IF(EXACT(D31,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7478,15 +4905,15 @@
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="57" t="str">
+        <v>119</v>
+      </c>
+      <c r="G32" s="45" t="str">
         <f>IF(EXACT(D32,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7545,15 +4972,15 @@
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="57" t="str">
+        <v>11</v>
+      </c>
+      <c r="G33" s="45" t="str">
         <f>IF(EXACT(D33,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7612,15 +5039,15 @@
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="12" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="57" t="str">
+        <v>116</v>
+      </c>
+      <c r="G34" s="45" t="str">
         <f>IF(EXACT(D34,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7679,15 +5106,15 @@
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="57" t="str">
+        <v>8</v>
+      </c>
+      <c r="G35" s="45" t="str">
         <f>IF(EXACT(D35,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7746,15 +5173,15 @@
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="12" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="57" t="str">
+        <v>113</v>
+      </c>
+      <c r="G36" s="45" t="str">
         <f>IF(EXACT(D36,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7813,15 +5240,15 @@
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="57" t="str">
+        <v>111</v>
+      </c>
+      <c r="G37" s="45" t="str">
         <f>IF(EXACT(D37,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7879,16 +5306,16 @@
       </c>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="47" t="s">
-        <v>142</v>
+      <c r="D38" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="57" t="str">
+        <v>109</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="45" t="str">
         <f>IF(EXACT(D38,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -7947,15 +5374,15 @@
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="12" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="57" t="str">
+        <v>105</v>
+      </c>
+      <c r="G39" s="45" t="str">
         <f>IF(EXACT(D39,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8014,15 +5441,15 @@
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="12" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="57" t="str">
+        <v>102</v>
+      </c>
+      <c r="G40" s="45" t="str">
         <f>IF(EXACT(D40,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8081,15 +5508,15 @@
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="12" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="57" t="str">
+        <v>99</v>
+      </c>
+      <c r="G41" s="45" t="str">
         <f>IF(EXACT(D41,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8148,15 +5575,15 @@
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="12" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="57" t="str">
+        <v>96</v>
+      </c>
+      <c r="G42" s="45" t="str">
         <f>IF(EXACT(D42,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8215,15 +5642,15 @@
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="12" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="57" t="str">
+        <v>93</v>
+      </c>
+      <c r="G43" s="45" t="str">
         <f>IF(EXACT(D43,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8282,15 +5709,15 @@
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="12" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="57" t="str">
+        <v>90</v>
+      </c>
+      <c r="G44" s="45" t="str">
         <f>IF(EXACT(D44,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8349,15 +5776,15 @@
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="12" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="57" t="str">
+        <v>87</v>
+      </c>
+      <c r="G45" s="45" t="str">
         <f>IF(EXACT(D45,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8416,15 +5843,15 @@
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="12" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>84</v>
+      </c>
+      <c r="G46" s="45" t="str">
         <f>IF(EXACT(D46,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8483,15 +5910,15 @@
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="12" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="57" t="str">
+        <v>81</v>
+      </c>
+      <c r="G47" s="45" t="str">
         <f>IF(EXACT(D47,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8549,16 +5976,16 @@
       </c>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D48" s="47" t="s">
-        <v>112</v>
+      <c r="D48" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="57" t="str">
+        <v>79</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="45" t="str">
         <f>IF(EXACT(D48,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8616,16 +6043,16 @@
       </c>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" s="47" t="s">
-        <v>109</v>
+      <c r="D49" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="57" t="str">
+        <v>75</v>
+      </c>
+      <c r="G49" s="45" t="str">
         <f>IF(EXACT(D49,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8683,16 +6110,16 @@
       </c>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="47" t="s">
-        <v>106</v>
+      <c r="D50" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="57" t="str">
+        <v>73</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="45" t="str">
         <f>IF(EXACT(D50,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8750,16 +6177,16 @@
       </c>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" s="44" t="s">
-        <v>103</v>
+      <c r="D51" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="57" t="str">
+        <v>69</v>
+      </c>
+      <c r="G51" s="45" t="str">
         <f>IF(EXACT(D51,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8818,15 +6245,15 @@
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="12" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="57" t="str">
+        <v>66</v>
+      </c>
+      <c r="G52" s="45" t="str">
         <f>IF(EXACT(D52,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8885,15 +6312,15 @@
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="12" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="57" t="str">
+        <v>63</v>
+      </c>
+      <c r="G53" s="45" t="str">
         <f>IF(EXACT(D53,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -8952,15 +6379,15 @@
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="12" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="57" t="str">
+        <v>60</v>
+      </c>
+      <c r="G54" s="45" t="str">
         <f>IF(EXACT(D54,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9019,15 +6446,15 @@
     </row>
     <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D55" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="57" t="str">
+        <v>4</v>
+      </c>
+      <c r="G55" s="45" t="str">
         <f>IF(EXACT(D55,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9086,15 +6513,15 @@
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D56" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="57" t="str">
+        <v>58</v>
+      </c>
+      <c r="G56" s="45" t="str">
         <f>IF(EXACT(D56,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9153,15 +6580,15 @@
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D57" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="57" t="str">
+        <v>55</v>
+      </c>
+      <c r="G57" s="45" t="str">
         <f>IF(EXACT(D57,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9220,15 +6647,15 @@
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D58" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" s="57" t="str">
+        <v>54</v>
+      </c>
+      <c r="G58" s="45" t="str">
         <f>IF(EXACT(D58,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9287,15 +6714,15 @@
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="57" t="str">
+        <v>53</v>
+      </c>
+      <c r="G59" s="45" t="str">
         <f>IF(EXACT(D59,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9354,15 +6781,15 @@
     </row>
     <row r="60" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D60" s="12" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="57" t="str">
+        <v>51</v>
+      </c>
+      <c r="G60" s="45" t="str">
         <f>IF(EXACT(D60,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9421,15 +6848,15 @@
     </row>
     <row r="61" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D61" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G61" s="45" t="str">
         <f>IF(EXACT(D61,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9488,15 +6915,15 @@
     </row>
     <row r="62" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D62" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G62" s="45" t="str">
         <f>IF(EXACT(D62,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9554,16 +6981,16 @@
       </c>
     </row>
     <row r="63" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="37" t="str">
+      <c r="D63" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="36" t="str">
         <f>IF(EXACT(D63,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9638,7 +7065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9676,119 +7103,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="J1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="69"/>
+      <c r="A1" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="53"/>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" s="27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>298</v>
+      <c r="A3" s="50" t="s">
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="57" t="str">
+        <v>179</v>
+      </c>
+      <c r="G3" s="45" t="str">
         <f>IF(EXACT(D3,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9846,23 +7273,23 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>300</v>
+      <c r="A4" s="50" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="57" t="str">
+        <v>176</v>
+      </c>
+      <c r="G4" s="45" t="str">
         <f>IF(EXACT(D4,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9920,23 +7347,23 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>23</v>
+      <c r="A5" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="48" t="s">
-        <v>206</v>
+      <c r="D5" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="57" t="str">
+        <v>174</v>
+      </c>
+      <c r="G5" s="45" t="str">
         <f>IF(EXACT(D5,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -9994,23 +7421,23 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>288</v>
+      <c r="A6" s="50" t="s">
+        <v>256</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="12" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="57" t="str">
+        <v>171</v>
+      </c>
+      <c r="G6" s="45" t="str">
         <f>IF(EXACT(D6,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10068,20 +7495,20 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>20</v>
+      <c r="A7" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="12" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="57" t="str">
+        <v>170</v>
+      </c>
+      <c r="G7" s="45" t="str">
         <f>IF(EXACT(D7,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10139,23 +7566,23 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>18</v>
+      <c r="A8" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="12" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="57" t="str">
+        <v>168</v>
+      </c>
+      <c r="G8" s="45" t="str">
         <f>IF(EXACT(D8,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10213,23 +7640,23 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>299</v>
+      <c r="A9" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="57" t="str">
+        <v>165</v>
+      </c>
+      <c r="G9" s="45" t="str">
         <f>IF(EXACT(D9,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10287,23 +7714,23 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>285</v>
+      <c r="A10" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="39"/>
+        <v>254</v>
+      </c>
+      <c r="C10" s="38"/>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="57" t="str">
+        <v>22</v>
+      </c>
+      <c r="G10" s="45" t="str">
         <f>IF(EXACT(D10,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10361,23 +7788,23 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>301</v>
+      <c r="A11" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="39"/>
+        <v>259</v>
+      </c>
+      <c r="C11" s="38"/>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="57" t="str">
+        <v>19</v>
+      </c>
+      <c r="G11" s="45" t="str">
         <f>IF(EXACT(D11,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10435,22 +7862,22 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>287</v>
+      <c r="A12" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="57" t="str">
+        <v>227</v>
+      </c>
+      <c r="G12" s="45" t="str">
         <f>IF(EXACT(D12,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10508,22 +7935,22 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>11</v>
+      <c r="A13" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="57" t="str">
+        <v>225</v>
+      </c>
+      <c r="G13" s="45" t="str">
         <f>IF(EXACT(D13,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10581,18 +8008,18 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="D14" s="12" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="57" t="str">
+        <v>223</v>
+      </c>
+      <c r="G14" s="45" t="str">
         <f>IF(EXACT(D14,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10651,15 +8078,15 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="57" t="str">
+        <v>221</v>
+      </c>
+      <c r="G15" s="45" t="str">
         <f>IF(EXACT(D15,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10718,15 +8145,15 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="57" t="str">
+        <v>219</v>
+      </c>
+      <c r="G16" s="45" t="str">
         <f>IF(EXACT(D16,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10785,15 +8212,15 @@
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="12" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="57" t="str">
+        <v>148</v>
+      </c>
+      <c r="G17" s="45" t="str">
         <f>IF(EXACT(D17,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v>C76.0</v>
       </c>
@@ -10852,15 +8279,15 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="12" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="57" t="str">
+        <v>147</v>
+      </c>
+      <c r="G18" s="45" t="str">
         <f>IF(EXACT(D18,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10919,15 +8346,15 @@
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="57" t="str">
+        <v>146</v>
+      </c>
+      <c r="G19" s="45" t="str">
         <f>IF(EXACT(D19,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -10986,15 +8413,15 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="57" t="str">
+        <v>144</v>
+      </c>
+      <c r="G20" s="45" t="str">
         <f>IF(EXACT(D20,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11053,15 +8480,15 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="57" t="str">
+        <v>141</v>
+      </c>
+      <c r="G21" s="45" t="str">
         <f>IF(EXACT(D21,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11120,15 +8547,15 @@
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="57" t="str">
+        <v>17</v>
+      </c>
+      <c r="G22" s="45" t="str">
         <f>IF(EXACT(D22,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11187,15 +8614,15 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="57" t="str">
+        <v>138</v>
+      </c>
+      <c r="G23" s="45" t="str">
         <f>IF(EXACT(D23,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11253,16 +8680,16 @@
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="58" t="s">
-        <v>169</v>
+      <c r="D24" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="57" t="str">
+        <v>136</v>
+      </c>
+      <c r="G24" s="45" t="str">
         <f>IF(EXACT(D24,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11320,16 +8747,16 @@
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="58" t="s">
-        <v>167</v>
+      <c r="D25" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="57" t="str">
+        <v>134</v>
+      </c>
+      <c r="G25" s="45" t="str">
         <f>IF(EXACT(D25,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11388,15 +8815,15 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="57" t="str">
+        <v>15</v>
+      </c>
+      <c r="G26" s="45" t="str">
         <f>IF(EXACT(D26,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11455,15 +8882,15 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="12" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="57" t="str">
+        <v>132</v>
+      </c>
+      <c r="G27" s="45" t="str">
         <f>IF(EXACT(D27,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11522,15 +8949,15 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="12" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="57" t="str">
+        <v>129</v>
+      </c>
+      <c r="G28" s="45" t="str">
         <f>IF(EXACT(D28,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11589,15 +9016,15 @@
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="12" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="57" t="str">
+        <v>126</v>
+      </c>
+      <c r="G29" s="45" t="str">
         <f>IF(EXACT(D29,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11656,15 +9083,15 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="57" t="str">
+        <v>123</v>
+      </c>
+      <c r="G30" s="45" t="str">
         <f>IF(EXACT(D30,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11723,15 +9150,15 @@
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="57" t="str">
+        <v>121</v>
+      </c>
+      <c r="G31" s="45" t="str">
         <f>IF(EXACT(D31,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11790,15 +9217,15 @@
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="57" t="str">
+        <v>119</v>
+      </c>
+      <c r="G32" s="45" t="str">
         <f>IF(EXACT(D32,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11857,15 +9284,15 @@
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="57" t="str">
+        <v>11</v>
+      </c>
+      <c r="G33" s="45" t="str">
         <f>IF(EXACT(D33,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11924,15 +9351,15 @@
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="12" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="57" t="str">
+        <v>116</v>
+      </c>
+      <c r="G34" s="45" t="str">
         <f>IF(EXACT(D34,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -11991,15 +9418,15 @@
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="57" t="str">
+        <v>8</v>
+      </c>
+      <c r="G35" s="45" t="str">
         <f>IF(EXACT(D35,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12058,15 +9485,15 @@
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="12" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="57" t="str">
+        <v>113</v>
+      </c>
+      <c r="G36" s="45" t="str">
         <f>IF(EXACT(D36,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12125,19 +9552,19 @@
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>250</v>
+        <v>111</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>218</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="J37" s="21" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],3,FALSE)</f>
@@ -12190,15 +9617,15 @@
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="12" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" s="57" t="str">
+        <v>216</v>
+      </c>
+      <c r="G38" s="45" t="str">
         <f>IF(EXACT(D38,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12257,15 +9684,15 @@
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="12" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G39" s="57" t="str">
+        <v>214</v>
+      </c>
+      <c r="G39" s="45" t="str">
         <f>IF(EXACT(D39,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12324,15 +9751,15 @@
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="12" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G40" s="57" t="str">
+        <v>212</v>
+      </c>
+      <c r="G40" s="45" t="str">
         <f>IF(EXACT(D40,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12391,15 +9818,15 @@
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="12" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="57" t="str">
+        <v>210</v>
+      </c>
+      <c r="G41" s="45" t="str">
         <f>IF(EXACT(D41,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12458,15 +9885,15 @@
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="12" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="57" t="str">
+        <v>208</v>
+      </c>
+      <c r="G42" s="45" t="str">
         <f>IF(EXACT(D42,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12525,15 +9952,15 @@
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="12" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" s="57" t="str">
+        <v>206</v>
+      </c>
+      <c r="G43" s="45" t="str">
         <f>IF(EXACT(D43,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12592,15 +10019,15 @@
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="12" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="57" t="str">
+        <v>204</v>
+      </c>
+      <c r="G44" s="45" t="str">
         <f>IF(EXACT(D44,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12659,15 +10086,15 @@
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="12" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G45" s="57" t="str">
+        <v>202</v>
+      </c>
+      <c r="G45" s="45" t="str">
         <f>IF(EXACT(D45,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12726,15 +10153,15 @@
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="12" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>200</v>
+      </c>
+      <c r="G46" s="45" t="str">
         <f>IF(EXACT(D46,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12793,15 +10220,15 @@
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="12" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G47" s="57" t="str">
+        <v>198</v>
+      </c>
+      <c r="G47" s="45" t="str">
         <f>IF(EXACT(D47,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12860,15 +10287,15 @@
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D48" s="12" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G48" s="57" t="str">
+        <v>196</v>
+      </c>
+      <c r="G48" s="45" t="str">
         <f>IF(EXACT(D48,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12926,16 +10353,16 @@
       </c>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" s="47" t="s">
-        <v>109</v>
+      <c r="D49" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="57" t="str">
+        <v>194</v>
+      </c>
+      <c r="G49" s="45" t="str">
         <f>IF(EXACT(D49,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -12993,16 +10420,16 @@
       </c>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="47" t="s">
-        <v>106</v>
+      <c r="D50" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="G50" s="57" t="str">
+        <v>193</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="45" t="str">
         <f>IF(EXACT(D50,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13060,16 +10487,16 @@
       </c>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" s="44" t="s">
-        <v>103</v>
+      <c r="D51" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51" s="57" t="str">
+        <v>190</v>
+      </c>
+      <c r="G51" s="45" t="str">
         <f>IF(EXACT(D51,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13128,15 +10555,15 @@
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="12" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G52" s="57" t="str">
+        <v>188</v>
+      </c>
+      <c r="G52" s="45" t="str">
         <f>IF(EXACT(D52,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13195,15 +10622,15 @@
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="12" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G53" s="57" t="str">
+        <v>186</v>
+      </c>
+      <c r="G53" s="45" t="str">
         <f>IF(EXACT(D53,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13262,15 +10689,15 @@
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="12" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G54" s="57" t="str">
+        <v>184</v>
+      </c>
+      <c r="G54" s="45" t="str">
         <f>IF(EXACT(D54,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13329,15 +10756,15 @@
     </row>
     <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D55" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="57" t="str">
+        <v>4</v>
+      </c>
+      <c r="G55" s="45" t="str">
         <f>IF(EXACT(D55,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13396,15 +10823,15 @@
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D56" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="57" t="str">
+        <v>58</v>
+      </c>
+      <c r="G56" s="45" t="str">
         <f>IF(EXACT(D56,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13463,15 +10890,15 @@
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D57" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="57" t="str">
+        <v>55</v>
+      </c>
+      <c r="G57" s="45" t="str">
         <f>IF(EXACT(D57,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13530,15 +10957,15 @@
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D58" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="57" t="str">
+        <v>2</v>
+      </c>
+      <c r="G58" s="45" t="str">
         <f>IF(EXACT(D58,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13597,15 +11024,15 @@
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="57" t="str">
+        <v>0</v>
+      </c>
+      <c r="G59" s="45" t="str">
         <f>IF(EXACT(D59,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13664,15 +11091,15 @@
     </row>
     <row r="60" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D60" s="12" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="57" t="str">
+        <v>51</v>
+      </c>
+      <c r="G60" s="45" t="str">
         <f>IF(EXACT(D60,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13731,15 +11158,15 @@
     </row>
     <row r="61" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D61" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G61" s="45" t="str">
         <f>IF(EXACT(D61,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13798,15 +11225,15 @@
     </row>
     <row r="62" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D62" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G62" s="45" t="str">
         <f>IF(EXACT(D62,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13864,16 +11291,16 @@
       </c>
     </row>
     <row r="63" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="37" t="str">
+      <c r="D63" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="36" t="str">
         <f>IF(EXACT(D63,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -13948,14 +11375,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -13986,116 +11413,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="J1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="69"/>
+      <c r="A1" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="53"/>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" s="27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>298</v>
+      <c r="A3" s="50" t="s">
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="57" t="str">
+        <v>179</v>
+      </c>
+      <c r="G3" s="45" t="str">
         <f>IF(EXACT(D3,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14153,22 +11580,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>300</v>
+      <c r="A4" s="50" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="57" t="str">
+        <v>176</v>
+      </c>
+      <c r="G4" s="45" t="str">
         <f>IF(EXACT(D4,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14226,22 +11653,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>23</v>
+      <c r="A5" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>206</v>
+        <v>239</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="57" t="str">
+        <v>174</v>
+      </c>
+      <c r="G5" s="45" t="str">
         <f>IF(EXACT(D5,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14299,22 +11726,22 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>288</v>
+      <c r="A6" s="50" t="s">
+        <v>256</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="57" t="str">
+        <v>171</v>
+      </c>
+      <c r="G6" s="45" t="str">
         <f>IF(EXACT(D6,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14372,19 +11799,19 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>20</v>
+      <c r="A7" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="57" t="str">
+        <v>170</v>
+      </c>
+      <c r="G7" s="45" t="str">
         <f>IF(EXACT(D7,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14442,22 +11869,22 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>18</v>
+      <c r="A8" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="57" t="str">
+        <v>168</v>
+      </c>
+      <c r="G8" s="45" t="str">
         <f>IF(EXACT(D8,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14515,22 +11942,22 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>299</v>
+      <c r="A9" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="57" t="str">
+        <v>165</v>
+      </c>
+      <c r="G9" s="45" t="str">
         <f>IF(EXACT(D9,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14588,22 +12015,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>285</v>
+      <c r="A10" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="57" t="str">
+        <v>22</v>
+      </c>
+      <c r="G10" s="45" t="str">
         <f>IF(EXACT(D10,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14661,22 +12088,22 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>301</v>
+      <c r="A11" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="57" t="str">
+        <v>19</v>
+      </c>
+      <c r="G11" s="45" t="str">
         <f>IF(EXACT(D11,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14734,22 +12161,22 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>287</v>
+      <c r="A12" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="57" t="str">
+        <v>227</v>
+      </c>
+      <c r="G12" s="45" t="str">
         <f>IF(EXACT(D12,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14807,22 +12234,22 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>11</v>
+      <c r="A13" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="57" t="str">
+        <v>225</v>
+      </c>
+      <c r="G13" s="45" t="str">
         <f>IF(EXACT(D13,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14880,18 +12307,18 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="D14" s="12" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="57" t="str">
+        <v>236</v>
+      </c>
+      <c r="G14" s="45" t="str">
         <f>IF(EXACT(D14,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -14950,15 +12377,15 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="57" t="str">
+        <v>148</v>
+      </c>
+      <c r="G15" s="45" t="str">
         <f>IF(EXACT(D15,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v>C76.0</v>
       </c>
@@ -15017,15 +12444,15 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="57" t="str">
+        <v>147</v>
+      </c>
+      <c r="G16" s="45" t="str">
         <f>IF(EXACT(D16,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15084,15 +12511,15 @@
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="57" t="str">
+        <v>146</v>
+      </c>
+      <c r="G17" s="45" t="str">
         <f>IF(EXACT(D17,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15151,15 +12578,15 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="12" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="57" t="str">
+        <v>144</v>
+      </c>
+      <c r="G18" s="45" t="str">
         <f>IF(EXACT(D18,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15218,15 +12645,15 @@
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="57" t="str">
+        <v>141</v>
+      </c>
+      <c r="G19" s="45" t="str">
         <f>IF(EXACT(D19,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15285,15 +12712,15 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="57" t="str">
+        <v>17</v>
+      </c>
+      <c r="G20" s="45" t="str">
         <f>IF(EXACT(D20,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15352,15 +12779,15 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="57" t="str">
+        <v>138</v>
+      </c>
+      <c r="G21" s="45" t="str">
         <f>IF(EXACT(D21,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15418,16 +12845,16 @@
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="58" t="s">
-        <v>169</v>
+      <c r="D22" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="57" t="str">
+        <v>136</v>
+      </c>
+      <c r="G22" s="45" t="str">
         <f>IF(EXACT(D22,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15485,16 +12912,16 @@
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="58" t="s">
-        <v>167</v>
+      <c r="D23" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="57" t="str">
+        <v>134</v>
+      </c>
+      <c r="G23" s="45" t="str">
         <f>IF(EXACT(D23,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15553,15 +12980,15 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="57" t="str">
+        <v>15</v>
+      </c>
+      <c r="G24" s="45" t="str">
         <f>IF(EXACT(D24,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15620,15 +13047,15 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="12" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="57" t="str">
+        <v>132</v>
+      </c>
+      <c r="G25" s="45" t="str">
         <f>IF(EXACT(D25,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15687,15 +13114,15 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="57" t="str">
+        <v>129</v>
+      </c>
+      <c r="G26" s="45" t="str">
         <f>IF(EXACT(D26,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15754,15 +13181,15 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="12" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="57" t="str">
+        <v>126</v>
+      </c>
+      <c r="G27" s="45" t="str">
         <f>IF(EXACT(D27,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15821,15 +13248,15 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="12" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="57" t="str">
+        <v>123</v>
+      </c>
+      <c r="G28" s="45" t="str">
         <f>IF(EXACT(D28,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15888,15 +13315,15 @@
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="12" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="57" t="str">
+        <v>121</v>
+      </c>
+      <c r="G29" s="45" t="str">
         <f>IF(EXACT(D29,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -15955,15 +13382,15 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="57" t="str">
+        <v>119</v>
+      </c>
+      <c r="G30" s="45" t="str">
         <f>IF(EXACT(D30,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16022,15 +13449,15 @@
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="57" t="str">
+        <v>11</v>
+      </c>
+      <c r="G31" s="45" t="str">
         <f>IF(EXACT(D31,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16089,15 +13516,15 @@
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="12" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="57" t="str">
+        <v>116</v>
+      </c>
+      <c r="G32" s="45" t="str">
         <f>IF(EXACT(D32,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16156,15 +13583,15 @@
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="57" t="str">
+        <v>8</v>
+      </c>
+      <c r="G33" s="45" t="str">
         <f>IF(EXACT(D33,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16223,15 +13650,15 @@
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="12" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="57" t="str">
+        <v>113</v>
+      </c>
+      <c r="G34" s="45" t="str">
         <f>IF(EXACT(D34,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16290,15 +13717,15 @@
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="57" t="str">
+        <v>111</v>
+      </c>
+      <c r="G35" s="45" t="str">
         <f>IF(EXACT(D35,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16357,15 +13784,15 @@
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="12" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="57" t="str">
+        <v>216</v>
+      </c>
+      <c r="G36" s="45" t="str">
         <f>IF(EXACT(D36,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16424,15 +13851,15 @@
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="12" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="57" t="str">
+        <v>214</v>
+      </c>
+      <c r="G37" s="45" t="str">
         <f>IF(EXACT(D37,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16491,15 +13918,15 @@
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="12" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="57" t="str">
+        <v>212</v>
+      </c>
+      <c r="G38" s="45" t="str">
         <f>IF(EXACT(D38,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16558,15 +13985,15 @@
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="12" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" s="57" t="str">
+        <v>210</v>
+      </c>
+      <c r="G39" s="45" t="str">
         <f>IF(EXACT(D39,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16625,15 +14052,15 @@
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="12" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" s="57" t="str">
+        <v>208</v>
+      </c>
+      <c r="G40" s="45" t="str">
         <f>IF(EXACT(D40,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16692,15 +14119,15 @@
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="12" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" s="57" t="str">
+        <v>206</v>
+      </c>
+      <c r="G41" s="45" t="str">
         <f>IF(EXACT(D41,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16759,15 +14186,15 @@
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="12" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G42" s="57" t="str">
+        <v>204</v>
+      </c>
+      <c r="G42" s="45" t="str">
         <f>IF(EXACT(D42,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16826,15 +14253,15 @@
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="12" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="57" t="str">
+        <v>202</v>
+      </c>
+      <c r="G43" s="45" t="str">
         <f>IF(EXACT(D43,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16893,15 +14320,15 @@
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="12" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="57" t="str">
+        <v>200</v>
+      </c>
+      <c r="G44" s="45" t="str">
         <f>IF(EXACT(D44,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -16960,15 +14387,15 @@
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="12" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G45" s="57" t="str">
+        <v>198</v>
+      </c>
+      <c r="G45" s="45" t="str">
         <f>IF(EXACT(D45,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17027,15 +14454,15 @@
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="12" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>235</v>
+      </c>
+      <c r="G46" s="45" t="str">
         <f>IF(EXACT(D46,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17094,15 +14521,15 @@
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="12" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="57" t="str">
+        <v>234</v>
+      </c>
+      <c r="G47" s="45" t="str">
         <f>IF(EXACT(D47,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17161,15 +14588,15 @@
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G48" s="57" t="str">
+        <v>232</v>
+      </c>
+      <c r="G48" s="45" t="str">
         <f>IF(EXACT(D48,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17228,15 +14655,15 @@
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D49" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="57" t="str">
+        <v>4</v>
+      </c>
+      <c r="G49" s="45" t="str">
         <f>IF(EXACT(D49,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17295,15 +14722,15 @@
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D50" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="57" t="str">
+        <v>58</v>
+      </c>
+      <c r="G50" s="45" t="str">
         <f>IF(EXACT(D50,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17362,15 +14789,15 @@
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D51" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="57" t="str">
+        <v>55</v>
+      </c>
+      <c r="G51" s="45" t="str">
         <f>IF(EXACT(D51,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17429,15 +14856,15 @@
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="57" t="str">
+        <v>2</v>
+      </c>
+      <c r="G52" s="45" t="str">
         <f>IF(EXACT(D52,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17496,15 +14923,15 @@
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="57" t="str">
+        <v>0</v>
+      </c>
+      <c r="G53" s="45" t="str">
         <f>IF(EXACT(D53,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17563,15 +14990,15 @@
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="12" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="57" t="str">
+        <v>51</v>
+      </c>
+      <c r="G54" s="45" t="str">
         <f>IF(EXACT(D54,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17630,15 +15057,15 @@
     </row>
     <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D55" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G55" s="45" t="str">
         <f>IF(EXACT(D55,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17697,15 +15124,15 @@
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D56" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G56" s="45" t="str">
         <f>IF(EXACT(D56,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17763,16 +15190,16 @@
       </c>
     </row>
     <row r="57" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="37" t="str">
+      <c r="D57" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="36" t="str">
         <f>IF(EXACT(D57,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -17847,7 +15274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17885,119 +15312,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="J1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="69"/>
+      <c r="A1" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="53"/>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" s="27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>298</v>
+      <c r="A3" s="50" t="s">
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="57" t="str">
+        <v>179</v>
+      </c>
+      <c r="G3" s="45" t="str">
         <f>IF(EXACT(D3,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18055,23 +15482,23 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>300</v>
+      <c r="A4" s="50" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="12" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="57" t="str">
+        <v>176</v>
+      </c>
+      <c r="G4" s="45" t="str">
         <f>IF(EXACT(D4,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18129,23 +15556,23 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>23</v>
+      <c r="A5" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="48" t="s">
-        <v>206</v>
+      <c r="D5" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="57" t="str">
+        <v>174</v>
+      </c>
+      <c r="G5" s="45" t="str">
         <f>IF(EXACT(D5,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18203,23 +15630,23 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>288</v>
+      <c r="A6" s="50" t="s">
+        <v>256</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="12" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="57" t="str">
+        <v>171</v>
+      </c>
+      <c r="G6" s="45" t="str">
         <f>IF(EXACT(D6,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18277,20 +15704,20 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>20</v>
+      <c r="A7" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="12" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="57" t="str">
+        <v>170</v>
+      </c>
+      <c r="G7" s="45" t="str">
         <f>IF(EXACT(D7,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18348,23 +15775,23 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>18</v>
+      <c r="A8" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>201</v>
+        <v>168</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="57" t="str">
+        <v>168</v>
+      </c>
+      <c r="G8" s="45" t="str">
         <f>IF(EXACT(D8,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18422,23 +15849,23 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>299</v>
+      <c r="A9" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="57" t="str">
+        <v>165</v>
+      </c>
+      <c r="G9" s="45" t="str">
         <f>IF(EXACT(D9,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18496,23 +15923,23 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>285</v>
+      <c r="A10" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="39"/>
+        <v>254</v>
+      </c>
+      <c r="C10" s="38"/>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="57" t="str">
+        <v>22</v>
+      </c>
+      <c r="G10" s="45" t="str">
         <f>IF(EXACT(D10,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18570,23 +15997,23 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>301</v>
+      <c r="A11" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="39"/>
+        <v>261</v>
+      </c>
+      <c r="C11" s="38"/>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="57" t="str">
+        <v>19</v>
+      </c>
+      <c r="G11" s="45" t="str">
         <f>IF(EXACT(D11,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18644,22 +16071,22 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>287</v>
+      <c r="A12" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="57" t="str">
+        <v>148</v>
+      </c>
+      <c r="G12" s="45" t="str">
         <f>IF(EXACT(D12,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v>C76.0</v>
       </c>
@@ -18717,22 +16144,22 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>11</v>
+      <c r="A13" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="57" t="str">
+        <v>147</v>
+      </c>
+      <c r="G13" s="45" t="str">
         <f>IF(EXACT(D13,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18790,18 +16217,18 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="D14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="57" t="str">
+        <v>17</v>
+      </c>
+      <c r="G14" s="45" t="str">
         <f>IF(EXACT(D14,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18860,15 +16287,15 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="57" t="str">
+        <v>138</v>
+      </c>
+      <c r="G15" s="45" t="str">
         <f>IF(EXACT(D15,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18926,16 +16353,16 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="58" t="s">
-        <v>169</v>
+      <c r="D16" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="57" t="str">
+        <v>136</v>
+      </c>
+      <c r="G16" s="45" t="str">
         <f>IF(EXACT(D16,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -18993,16 +16420,16 @@
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="58" t="s">
-        <v>167</v>
+      <c r="D17" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="57" t="str">
+        <v>134</v>
+      </c>
+      <c r="G17" s="45" t="str">
         <f>IF(EXACT(D17,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19061,15 +16488,15 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="57" t="str">
+        <v>15</v>
+      </c>
+      <c r="G18" s="45" t="str">
         <f>IF(EXACT(D18,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19128,15 +16555,15 @@
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="57" t="str">
+        <v>132</v>
+      </c>
+      <c r="G19" s="45" t="str">
         <f>IF(EXACT(D19,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19195,15 +16622,15 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="57" t="str">
+        <v>129</v>
+      </c>
+      <c r="G20" s="45" t="str">
         <f>IF(EXACT(D20,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19262,15 +16689,15 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="57" t="str">
+        <v>126</v>
+      </c>
+      <c r="G21" s="45" t="str">
         <f>IF(EXACT(D21,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19329,15 +16756,15 @@
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="12" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="57" t="str">
+        <v>123</v>
+      </c>
+      <c r="G22" s="45" t="str">
         <f>IF(EXACT(D22,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19396,15 +16823,15 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="12" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="57" t="str">
+        <v>121</v>
+      </c>
+      <c r="G23" s="45" t="str">
         <f>IF(EXACT(D23,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19463,15 +16890,15 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="57" t="str">
+        <v>119</v>
+      </c>
+      <c r="G24" s="45" t="str">
         <f>IF(EXACT(D24,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19530,15 +16957,15 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="57" t="str">
+        <v>11</v>
+      </c>
+      <c r="G25" s="45" t="str">
         <f>IF(EXACT(D25,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19597,15 +17024,15 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="57" t="str">
+        <v>116</v>
+      </c>
+      <c r="G26" s="45" t="str">
         <f>IF(EXACT(D26,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19664,15 +17091,15 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="57" t="str">
+        <v>8</v>
+      </c>
+      <c r="G27" s="45" t="str">
         <f>IF(EXACT(D27,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19731,15 +17158,15 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="12" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="57" t="str">
+        <v>113</v>
+      </c>
+      <c r="G28" s="45" t="str">
         <f>IF(EXACT(D28,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19798,15 +17225,15 @@
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="57" t="str">
+        <v>111</v>
+      </c>
+      <c r="G29" s="45" t="str">
         <f>IF(EXACT(D29,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19865,15 +17292,15 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="57" t="str">
+        <v>4</v>
+      </c>
+      <c r="G30" s="45" t="str">
         <f>IF(EXACT(D30,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19932,15 +17359,15 @@
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="57" t="str">
+        <v>58</v>
+      </c>
+      <c r="G31" s="45" t="str">
         <f>IF(EXACT(D31,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -19999,15 +17426,15 @@
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="57" t="str">
+        <v>55</v>
+      </c>
+      <c r="G32" s="45" t="str">
         <f>IF(EXACT(D32,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20066,15 +17493,15 @@
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="57" t="str">
+        <v>54</v>
+      </c>
+      <c r="G33" s="45" t="str">
         <f>IF(EXACT(D33,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20133,15 +17560,15 @@
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="57" t="str">
+        <v>53</v>
+      </c>
+      <c r="G34" s="45" t="str">
         <f>IF(EXACT(D34,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20200,15 +17627,15 @@
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="12" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="57" t="str">
+        <v>51</v>
+      </c>
+      <c r="G35" s="45" t="str">
         <f>IF(EXACT(D35,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20267,15 +17694,15 @@
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="57" t="str">
+        <v>146</v>
+      </c>
+      <c r="G36" s="45" t="str">
         <f>IF(EXACT(D36,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20334,15 +17761,15 @@
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="12" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="57" t="str">
+        <v>144</v>
+      </c>
+      <c r="G37" s="45" t="str">
         <f>IF(EXACT(D37,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20400,16 +17827,16 @@
       </c>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="48" t="s">
-        <v>184</v>
+      <c r="D38" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="G38" s="57" t="str">
+        <v>243</v>
+      </c>
+      <c r="G38" s="45" t="str">
         <f>IF(EXACT(D38,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20468,15 +17895,15 @@
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="12" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G39" s="57" t="str">
+        <v>245</v>
+      </c>
+      <c r="G39" s="45" t="str">
         <f>IF(EXACT(D39,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20534,16 +17961,16 @@
       </c>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="48" t="s">
-        <v>100</v>
+      <c r="D40" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="G40" s="57" t="str">
+        <v>246</v>
+      </c>
+      <c r="G40" s="45" t="str">
         <f>IF(EXACT(D40,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20601,16 +18028,16 @@
       </c>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D41" s="48" t="s">
-        <v>100</v>
+      <c r="D41" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="57" t="str">
+        <v>248</v>
+      </c>
+      <c r="G41" s="45" t="str">
         <f>IF(EXACT(D41,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20668,16 +18095,16 @@
       </c>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="48" t="s">
-        <v>100</v>
+      <c r="D42" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="G42" s="57" t="str">
+        <v>250</v>
+      </c>
+      <c r="G42" s="45" t="str">
         <f>IF(EXACT(D42,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20735,16 +18162,16 @@
       </c>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D43" s="47" t="s">
-        <v>283</v>
+      <c r="D43" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="G43" s="57" t="str">
+        <v>251</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="45" t="str">
         <f>IF(EXACT(D43,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20803,15 +18230,15 @@
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G44" s="45" t="str">
         <f>IF(EXACT(D44,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20870,15 +18297,15 @@
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="57" t="str">
+        <v>46</v>
+      </c>
+      <c r="G45" s="45" t="str">
         <f>IF(EXACT(D45,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
@@ -20936,16 +18363,16 @@
       </c>
     </row>
     <row r="46" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="37" t="str">
+      <c r="D46" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="36" t="str">
         <f>IF(EXACT(D46,"DPV"),VLOOKUP(REPLACE($B$8,1,1,""),[1]!ICD_Codes[#All],2,FALSE),"")</f>
         <v/>
       </c>
